--- a/Framework/Storage/DunningCalendar.xlsx
+++ b/Framework/Storage/DunningCalendar.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ImranH2\Desktop\Imran\Workspace_VFQA_New\VFQA\Framework\Storage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleemimranb\OneDrive - Maveric Systems Limited\Desktop\Imran\Workspace_Parallel\VFQA-Parallel\Framework\Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
